--- a/114學年度四技二專技優保送/校系科(組)、學程資料檔_輔導考生用.xlsx
+++ b/114學年度四技二專技優保送/校系科(組)、學程資料檔_輔導考生用.xlsx
@@ -16,14 +16,14 @@
     <sheet name="技優保送附註" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">技優保送系組學程!$A$1:$H$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">技優保送系組學程!$J$1:$Q$39</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="234">
   <si>
     <t>學校代碼</t>
   </si>
@@ -867,6 +867,18 @@
 5.校園內備有女生宿舍，校外有男生宿舍若干，學生可依規定辦理申請（臺北市、新北市除外），按戶籍地遠近分配床位，冷氣採自行儲值方式使用。_x000D_
 6.學生除須於修業年限內修畢所屬學系（組）應修學分外，畢業前需通過「中文能力」、「體適能能力」及「英外語文畢業能力指標」方具畢業資格。_x000D_
 7.以上各項說明若有未盡事宜，悉依本校「學則」及相關法令規定辦理。</t>
+  </si>
+  <si>
+    <t>自願序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1028,7 +1040,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1069,6 +1081,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1385,31 +1400,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q158"/>
+  <dimension ref="A1:AB158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11:AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" customWidth="1"/>
+    <col min="20" max="20" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1458,8 +1484,35 @@
       <c r="Q1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T1" t="s">
+        <v>231</v>
+      </c>
+      <c r="U1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -1508,8 +1561,35 @@
       <c r="Q2" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T2" s="11">
+        <v>1</v>
+      </c>
+      <c r="U2" s="12">
+        <v>101</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -1558,8 +1638,39 @@
       <c r="Q3" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="S3" s="14"/>
+      <c r="T3" s="2">
+        <v>2</v>
+      </c>
+      <c r="U3" s="3">
+        <v>105</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -1608,8 +1719,35 @@
       <c r="Q4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T4" s="8">
+        <v>3</v>
+      </c>
+      <c r="U4" s="9">
+        <v>105</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>102</v>
       </c>
@@ -1658,8 +1796,35 @@
       <c r="Q5" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T5" s="5">
+        <v>4</v>
+      </c>
+      <c r="U5" s="6">
+        <v>105</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>102</v>
       </c>
@@ -1708,8 +1873,35 @@
       <c r="Q6" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T6" s="2">
+        <v>5</v>
+      </c>
+      <c r="U6" s="3">
+        <v>102</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>102</v>
       </c>
@@ -1758,8 +1950,35 @@
       <c r="Q7" s="10">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T7" s="8">
+        <v>6</v>
+      </c>
+      <c r="U7" s="9">
+        <v>102</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>102</v>
       </c>
@@ -1808,8 +2027,39 @@
       <c r="Q8" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="S8" s="14"/>
+      <c r="T8" s="5">
+        <v>7</v>
+      </c>
+      <c r="U8" s="6">
+        <v>102</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>102</v>
       </c>
@@ -1858,8 +2108,39 @@
       <c r="Q9" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="S9" s="14"/>
+      <c r="T9" s="8">
+        <v>8</v>
+      </c>
+      <c r="U9" s="9">
+        <v>113</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>102</v>
       </c>
@@ -1908,8 +2189,35 @@
       <c r="Q10" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T10" s="11">
+        <v>9</v>
+      </c>
+      <c r="U10" s="12">
+        <v>102</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>102</v>
       </c>
@@ -1958,8 +2266,23 @@
       <c r="Q11" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="S11" s="14"/>
+      <c r="T11" s="11">
+        <v>10</v>
+      </c>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="13"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>102</v>
       </c>
@@ -2009,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>102</v>
       </c>
@@ -2059,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>102</v>
       </c>
@@ -2109,7 +2432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>102</v>
       </c>
@@ -2159,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>102</v>
       </c>
@@ -2209,7 +2532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>102</v>
       </c>
@@ -2259,7 +2582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>102</v>
       </c>
@@ -2309,7 +2632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>102</v>
       </c>
@@ -2359,7 +2682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>102</v>
       </c>
@@ -2408,8 +2731,12 @@
       <c r="Q20" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="S20" s="14"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>102</v>
       </c>
@@ -2458,8 +2785,12 @@
       <c r="Q21" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="S21" s="14"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>102</v>
       </c>
@@ -2508,8 +2839,12 @@
       <c r="Q22" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="S22" s="14"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>102</v>
       </c>
@@ -2559,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>102</v>
       </c>
@@ -2609,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>102</v>
       </c>
@@ -2659,7 +2994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>102</v>
       </c>
@@ -2709,7 +3044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>102</v>
       </c>
@@ -2759,7 +3094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>102</v>
       </c>
@@ -2809,7 +3144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>102</v>
       </c>
@@ -2859,7 +3194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>102</v>
       </c>
@@ -2909,7 +3244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>102</v>
       </c>
@@ -2959,7 +3294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>102</v>
       </c>
@@ -3009,7 +3344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>103</v>
       </c>
@@ -3059,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>103</v>
       </c>
@@ -3108,8 +3443,12 @@
       <c r="Q34" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="S34" s="14"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>103</v>
       </c>
@@ -3159,7 +3498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>103</v>
       </c>
@@ -3209,7 +3548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>103</v>
       </c>
@@ -3259,7 +3598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>103</v>
       </c>
@@ -3309,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>103</v>
       </c>
@@ -3359,7 +3698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>103</v>
       </c>
@@ -3384,8 +3723,11 @@
       <c r="H40" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>103</v>
       </c>
@@ -3410,8 +3752,11 @@
       <c r="H41" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>103</v>
       </c>
@@ -3436,8 +3781,11 @@
       <c r="H42" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>103</v>
       </c>
@@ -3463,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>103</v>
       </c>
@@ -3489,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>103</v>
       </c>
@@ -3515,7 +3863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>103</v>
       </c>
@@ -3541,7 +3889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>103</v>
       </c>
@@ -3567,7 +3915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>103</v>
       </c>
@@ -6454,7 +6802,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H158"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/114學年度四技二專技優保送/校系科(組)、學程資料檔_輔導考生用.xlsx
+++ b/114學年度四技二專技優保送/校系科(組)、學程資料檔_輔導考生用.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1501\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="技優保送系組學程" sheetId="1" r:id="rId1"/>
@@ -909,7 +909,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1034,13 +1034,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1084,6 +1204,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1402,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11:AB11"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1435,7 +1579,7 @@
     <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1484,31 +1628,31 @@
       <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="V1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="V1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="17" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1561,32 +1705,32 @@
       <c r="Q2" s="4">
         <v>10</v>
       </c>
-      <c r="T2" s="11">
-        <v>1</v>
-      </c>
-      <c r="U2" s="12">
-        <v>101</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="W2" s="12" t="s">
+      <c r="T2" s="18">
+        <v>1</v>
+      </c>
+      <c r="U2" s="19">
+        <v>105</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="W2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB2" s="13">
-        <v>10</v>
+      <c r="X2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="20">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -1642,32 +1786,32 @@
         <v>232</v>
       </c>
       <c r="S3" s="14"/>
-      <c r="T3" s="2">
+      <c r="T3" s="18">
         <v>2</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="19">
         <v>105</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>4</v>
+      <c r="X3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" s="20">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -1719,32 +1863,32 @@
       <c r="Q4" s="4">
         <v>1</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="18">
         <v>3</v>
       </c>
-      <c r="U4" s="9">
-        <v>105</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="W4" s="9" t="s">
+      <c r="U4" s="19">
+        <v>101</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB4" s="10">
-        <v>1</v>
+      <c r="X4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="20">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -1796,31 +1940,31 @@
       <c r="Q5" s="10">
         <v>3</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="18">
         <v>4</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="19">
         <v>105</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="W5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="X5" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="Y5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="6" t="s">
+      <c r="Y5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z5" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="AA5" s="6" t="s">
+      <c r="AA5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB5" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1873,31 +2017,31 @@
       <c r="Q6" s="10">
         <v>1</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="18">
         <v>5</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="19">
         <v>102</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="V6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="W6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="X6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="Y6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z6" s="3" t="s">
+      <c r="Y6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AA6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AB6" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1950,31 +2094,31 @@
       <c r="Q7" s="10">
         <v>7</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="18">
         <v>6</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U7" s="19">
         <v>102</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="V7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="W7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="X7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="Y7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z7" s="9" t="s">
+      <c r="Y7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AA7" s="9" t="s">
+      <c r="AA7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AB7" s="10">
+      <c r="AB7" s="20">
         <v>3</v>
       </c>
     </row>
@@ -2031,31 +2175,31 @@
         <v>232</v>
       </c>
       <c r="S8" s="14"/>
-      <c r="T8" s="5">
+      <c r="T8" s="18">
         <v>7</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="19">
         <v>102</v>
       </c>
-      <c r="V8" s="6" t="s">
+      <c r="V8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="W8" s="6" t="s">
+      <c r="W8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="X8" s="6" t="s">
+      <c r="X8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Y8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z8" s="6" t="s">
+      <c r="Y8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AA8" s="6" t="s">
+      <c r="AA8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AB8" s="20">
         <v>3</v>
       </c>
     </row>
@@ -2112,35 +2256,35 @@
         <v>233</v>
       </c>
       <c r="S9" s="14"/>
-      <c r="T9" s="8">
+      <c r="T9" s="18">
         <v>8</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="19">
         <v>113</v>
       </c>
-      <c r="V9" s="9" t="s">
+      <c r="V9" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="W9" s="9" t="s">
+      <c r="W9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="9" t="s">
+      <c r="X9" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="Y9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z9" s="9" t="s">
+      <c r="Y9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z9" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="AA9" s="9" t="s">
+      <c r="AA9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AB9" s="10">
+      <c r="AB9" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>102</v>
       </c>
@@ -2189,35 +2333,35 @@
       <c r="Q10" s="10">
         <v>1</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="18">
         <v>9</v>
       </c>
-      <c r="U10" s="12">
+      <c r="U10" s="21">
         <v>102</v>
       </c>
-      <c r="V10" s="12" t="s">
+      <c r="V10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="W10" s="12" t="s">
+      <c r="W10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="X10" s="12" t="s">
+      <c r="X10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="Y10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z10" s="12" t="s">
+      <c r="Y10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AA10" s="12" t="s">
+      <c r="AA10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AB10" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB10" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>102</v>
       </c>
@@ -2270,17 +2414,15 @@
         <v>233</v>
       </c>
       <c r="S11" s="14"/>
-      <c r="T11" s="11">
-        <v>10</v>
-      </c>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="13"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -2331,6 +2473,15 @@
       <c r="Q12" s="10">
         <v>1</v>
       </c>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
